--- a/data/extracted_data/raw/McGuire_etal_2025_Table2.xlsx
+++ b/data/extracted_data/raw/McGuire_etal_2025_Table2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB0F4A1-EBEB-044A-AB95-86C794AACC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980D0D0E-9EDB-084C-9E8F-AA575D5BD34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="8380" windowWidth="33880" windowHeight="16060" xr2:uid="{ECD6425D-59EE-2E4E-B602-BA19A8E66EF5}"/>
+    <workbookView xWindow="1960" yWindow="4640" windowWidth="33880" windowHeight="16060" xr2:uid="{ECD6425D-59EE-2E4E-B602-BA19A8E66EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
-  <si>
-    <t>time_hr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>treatment</t>
   </si>
@@ -54,6 +51,15 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -431,191 +437,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BCBD77-A1FF-8441-8C41-191350A830F8}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>A2/24</f>
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="B3">
+        <f>A3/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1.21313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <f>A4/24</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <f>A5/24</f>
+        <v>1.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1.769326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <f>A6/24</f>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3.850285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <f>A7/24</f>
+        <v>2.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1.5257160000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f>A8/24</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <f>A9/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4.2144729999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <f>A10/24</f>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5.9919219999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <f>A11/24</f>
+        <v>1.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>10.71763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <f>A12/24</f>
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>13.79063</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <f>A13/24</f>
+        <v>2.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5.6219460000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f>A14/24</f>
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f>A15/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>33.780290000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="B16">
+        <f>A16/24</f>
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>51.799930000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B17">
+        <f>A17/24</f>
+        <v>1.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>84.604320000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B18">
+        <f>A18/24</f>
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>25.826280000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
+      <c r="B19">
+        <f>A19/24</f>
+        <v>2.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>17.066849999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f>A20/24</f>
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>4.2144729999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B21">
+        <f>A21/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>39.207892999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>5.9919219999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="B22">
+        <f>A22/24</f>
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>57.791852000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>10.71763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B23">
+        <f>A23/24</f>
+        <v>1.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>97.091275999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>13.79063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="B24">
+        <f>A24/24</f>
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>43.467195000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>5.6219460000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1.21313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1.769326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>3.850285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>1.5257160000000001</v>
+      <c r="B25">
+        <f>A25/24</f>
+        <v>2.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>24.214511999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
+    <sortCondition ref="C2:C19"/>
+    <sortCondition ref="B2:B19"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
